--- a/biology/Médecine/Maurice_de_la_Corde/Maurice_de_la_Corde.xlsx
+++ b/biology/Médecine/Maurice_de_la_Corde/Maurice_de_la_Corde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice de la Corde, est un médecin français du XVIe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De la Corde, pour rentrer dans ce corps de la Faculté de médecine de Paris s'était fait octroyer par le roi des lettres de grâce, le 17 mai 1571. La Faculté refusa de l'admettre sans l'autorisation du recteur de l'Université de Paris qui devait connaître de ces délits. 
 Protestant, de la Corde en référa au Parlement qui rendit, le 3 août 1573, une décision confirmant un arrêt de 1569 en sa faveur. Le recteur, avisé par le doyen, demanda qu'avant toutes choses, de la Corde abjurât publiquement son erreur devant l'Université. 
